--- a/homework.xlsx
+++ b/homework.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$59</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="290">
   <si>
     <t>c112</t>
   </si>
@@ -533,9 +536,6 @@
   </si>
   <si>
     <t>b304</t>
-  </si>
-  <si>
-    <t>阿联酋340w视频有轴</t>
   </si>
   <si>
     <t>b301</t>
@@ -636,10 +636,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头头猫Sora</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>剑圣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -909,14 +905,164 @@
   </si>
   <si>
     <t>B4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b105</t>
+  </si>
+  <si>
+    <t>四星忍297w</t>
+  </si>
+  <si>
+    <t>b109</t>
+  </si>
+  <si>
+    <t>301w评论有轴</t>
+  </si>
+  <si>
+    <t>b111</t>
+  </si>
+  <si>
+    <t>飘零玖311w</t>
+  </si>
+  <si>
+    <t>b110</t>
+  </si>
+  <si>
+    <t>319w无轴</t>
+  </si>
+  <si>
+    <t>b106</t>
+  </si>
+  <si>
+    <t>12-1情姐
+300w评论有轴</t>
+  </si>
+  <si>
+    <t>bt102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt103</t>
+  </si>
+  <si>
+    <t>b205</t>
+  </si>
+  <si>
+    <t>b206</t>
+  </si>
+  <si>
+    <t>b207</t>
+  </si>
+  <si>
+    <t>b208</t>
+  </si>
+  <si>
+    <t>bt201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑骑</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b306</t>
+  </si>
+  <si>
+    <t>b307</t>
+  </si>
+  <si>
+    <t>水猫</t>
+  </si>
+  <si>
+    <t>bt301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b405</t>
+  </si>
+  <si>
+    <t>b406</t>
+  </si>
+  <si>
+    <t>bt401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt403</t>
+  </si>
+  <si>
+    <t>b504</t>
+  </si>
+  <si>
+    <t>流夏</t>
+  </si>
+  <si>
+    <t>飘零玖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘零玖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具喵</t>
+  </si>
+  <si>
+    <t>清风桑332w</t>
+  </si>
+  <si>
+    <t>阿联酋340w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿修 好得话270w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飘零玖R12狼 情姐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风桑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具喵 松鼠10-6开专 R12狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具喵半auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头头猫Sora玩具喵半auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,6 +1088,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -957,22 +1104,23 @@
       <name val="SimSun"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE1B2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -981,39 +1129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,31 +1147,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1462,7 @@
       <selection sqref="A1:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
@@ -2103,7 +2232,7 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -2762,1177 +2891,1718 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="42.125" customWidth="1"/>
+    <col min="1" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="42.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5">
+      <c r="A2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="1">
+        <v>285</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16.5">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="1">
+        <v>285</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5">
+      <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="1">
+        <v>261</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5">
+      <c r="A5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H5" s="1">
+        <v>315</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H6" s="1">
+        <v>320</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="1">
+        <v>300</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B8" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5">
-      <c r="A2" s="1" t="s">
+      <c r="C8" s="1">
+        <v>511</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H8" s="1">
+        <v>302</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H9" s="1">
+        <v>285</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="1">
+        <v>299</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="1">
+        <v>339</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1">
+        <v>511</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="1">
+        <v>305</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="27" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="4">
+        <v>297</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="4">
+        <v>300</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="4">
+        <v>310</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H16" s="4">
+        <v>310</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17" s="4">
+        <v>300</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16.5">
+      <c r="A18" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" s="4">
+        <v>300</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
+      <c r="A19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H2">
+      <c r="H19" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="1">
+        <v>295</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="1">
+        <v>325</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="1">
+        <v>235</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="1">
+        <v>260</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="1">
+        <v>511</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H24" s="1">
+        <v>344</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="1">
+        <v>77</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="1">
+        <v>198</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5">
+      <c r="A26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H26" s="4">
+        <v>305</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5">
+      <c r="A27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H27" s="4">
+        <v>305</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G28" s="1">
+        <v>511</v>
+      </c>
+      <c r="H28" s="1">
+        <v>290</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="1">
+        <v>320</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="1">
+        <v>325</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5">
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="1">
+        <v>320</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="1">
+        <v>511</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="1">
+        <v>275</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.5">
+      <c r="A33" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="1">
+        <v>330</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" s="1">
+        <v>279</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="1">
+        <v>511</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H35" s="1">
+        <v>299</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H36" s="1">
+        <v>198</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H37" s="1">
+        <v>272</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="1">
+        <v>184</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="1">
+        <v>324</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="1">
+        <v>290</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="1">
+        <v>313</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D42" s="1">
+        <v>511</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="1">
+        <v>282</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H43" s="1">
+        <v>260</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="1">
+        <v>265</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="1">
+        <v>511</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" s="1">
+        <v>291</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G46" s="1">
+        <v>511</v>
+      </c>
+      <c r="H46" s="1">
+        <v>295</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="1">
+        <v>511</v>
+      </c>
+      <c r="H47" s="1">
+        <v>247</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="1">
+        <v>200</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="1">
+        <v>511</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H49" s="1">
+        <v>237</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="1">
+        <v>511</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50" s="1">
+        <v>190</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H51" s="1">
+        <v>190</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="16.5">
+      <c r="A52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="4">
+        <v>240</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="1">
+        <v>270</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="1">
         <v>285</v>
       </c>
-      <c r="I2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5">
-      <c r="A3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="I55" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H56" s="1">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H57" s="1">
+        <v>310</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D58" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="F58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3">
-        <v>285</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5">
-      <c r="A4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="H58" s="1">
+        <v>265</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H4">
-        <v>261</v>
-      </c>
-      <c r="I4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5">
-      <c r="A5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H5">
-        <v>315</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6">
-        <v>320</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7">
-        <v>300</v>
-      </c>
-      <c r="I7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8">
-        <v>295</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H9">
-        <v>325</v>
-      </c>
-      <c r="I9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10">
-        <v>235</v>
-      </c>
-      <c r="I10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11">
+      <c r="F59" s="1">
+        <v>511</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H59" s="1">
         <v>260</v>
       </c>
-      <c r="I11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G12" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12">
-        <v>325</v>
-      </c>
-      <c r="I12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="27" customHeight="1">
-      <c r="A13" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13">
-        <v>320</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" t="s">
-        <v>130</v>
-      </c>
-      <c r="E14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F14">
-        <v>511</v>
-      </c>
-      <c r="G14" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14">
-        <v>275</v>
-      </c>
-      <c r="I14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="27">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>130</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H15">
-        <v>330</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H16">
-        <v>324</v>
-      </c>
-      <c r="I16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>157</v>
-      </c>
-      <c r="B17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17">
-        <v>290</v>
-      </c>
-      <c r="I17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18">
-        <v>313</v>
-      </c>
-      <c r="I18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19">
-        <v>511</v>
-      </c>
-      <c r="H19">
-        <v>295</v>
-      </c>
-      <c r="I19" t="s">
-        <v>179</v>
-      </c>
-      <c r="J19" s="8"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" t="s">
-        <v>166</v>
-      </c>
-      <c r="F20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G20">
-        <v>511</v>
-      </c>
-      <c r="H20">
-        <v>247</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" t="s">
-        <v>167</v>
-      </c>
-      <c r="C21" t="s">
-        <v>168</v>
-      </c>
-      <c r="D21" t="s">
-        <v>169</v>
-      </c>
-      <c r="E21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" t="s">
-        <v>172</v>
-      </c>
-      <c r="H21">
-        <v>200</v>
-      </c>
-      <c r="I21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22">
-        <v>511</v>
-      </c>
-      <c r="D22" t="s">
-        <v>188</v>
-      </c>
-      <c r="E22" t="s">
-        <v>189</v>
-      </c>
-      <c r="F22" t="s">
-        <v>190</v>
-      </c>
-      <c r="G22" t="s">
-        <v>191</v>
-      </c>
-      <c r="H22">
-        <v>302</v>
-      </c>
-      <c r="I22" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23">
-        <v>511</v>
-      </c>
-      <c r="E23" t="s">
-        <v>188</v>
-      </c>
-      <c r="F23" t="s">
-        <v>194</v>
-      </c>
-      <c r="G23" t="s">
-        <v>195</v>
-      </c>
-      <c r="H23">
-        <v>344</v>
-      </c>
-      <c r="I23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>186</v>
-      </c>
-      <c r="B24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C24" t="s">
-        <v>193</v>
-      </c>
-      <c r="D24" t="s">
-        <v>188</v>
-      </c>
-      <c r="E24" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
-      </c>
-      <c r="H24">
-        <v>302</v>
-      </c>
-      <c r="I24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>186</v>
-      </c>
-      <c r="B25" t="s">
-        <v>187</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25">
-        <v>299</v>
-      </c>
-      <c r="I25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C26" t="s">
-        <v>204</v>
-      </c>
-      <c r="D26" t="s">
-        <v>205</v>
-      </c>
-      <c r="E26">
-        <v>77</v>
-      </c>
-      <c r="F26" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" t="s">
-        <v>206</v>
-      </c>
-      <c r="H26">
-        <v>198</v>
-      </c>
-      <c r="I26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>208</v>
-      </c>
-      <c r="B27" t="s">
-        <v>187</v>
-      </c>
-      <c r="C27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F27" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" t="s">
-        <v>210</v>
-      </c>
-      <c r="H27">
-        <v>279</v>
-      </c>
-      <c r="I27" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>208</v>
-      </c>
-      <c r="B28" t="s">
-        <v>203</v>
-      </c>
-      <c r="C28" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28">
-        <v>511</v>
-      </c>
-      <c r="E28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28">
-        <v>299</v>
-      </c>
-      <c r="I28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" t="s">
-        <v>214</v>
-      </c>
-      <c r="E29" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" t="s">
-        <v>215</v>
-      </c>
-      <c r="G29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H29">
-        <v>198</v>
-      </c>
-      <c r="I29" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>217</v>
-      </c>
-      <c r="B30" t="s">
-        <v>203</v>
-      </c>
-      <c r="C30" t="s">
-        <v>218</v>
-      </c>
-      <c r="D30">
-        <v>511</v>
-      </c>
-      <c r="E30" t="s">
-        <v>199</v>
-      </c>
-      <c r="F30" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30">
-        <v>301</v>
-      </c>
-      <c r="I30" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>217</v>
-      </c>
-      <c r="B31" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D31" t="s">
-        <v>219</v>
-      </c>
-      <c r="E31" t="s">
-        <v>190</v>
-      </c>
-      <c r="F31" t="s">
-        <v>215</v>
-      </c>
-      <c r="G31" t="s">
-        <v>191</v>
-      </c>
-      <c r="H31">
-        <v>252</v>
-      </c>
-      <c r="I31" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
-      <c r="C32" t="s">
-        <v>220</v>
-      </c>
-      <c r="D32" t="s">
-        <v>221</v>
-      </c>
-      <c r="E32" t="s">
-        <v>201</v>
-      </c>
-      <c r="F32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32">
-        <v>265</v>
-      </c>
-      <c r="I32" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B33" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" t="s">
-        <v>224</v>
-      </c>
-      <c r="D33">
-        <v>511</v>
-      </c>
-      <c r="E33" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" t="s">
-        <v>190</v>
-      </c>
-      <c r="G33" t="s">
-        <v>225</v>
-      </c>
-      <c r="H33">
-        <v>237</v>
-      </c>
-      <c r="I33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34">
-        <v>511</v>
-      </c>
-      <c r="D34" t="s">
-        <v>226</v>
-      </c>
-      <c r="E34" t="s">
-        <v>227</v>
-      </c>
-      <c r="F34" t="s">
-        <v>228</v>
-      </c>
-      <c r="G34" t="s">
-        <v>229</v>
-      </c>
-      <c r="H34">
-        <v>190</v>
-      </c>
-      <c r="I34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
-        <v>223</v>
-      </c>
-      <c r="B35" t="s">
-        <v>187</v>
-      </c>
-      <c r="C35" t="s">
-        <v>204</v>
-      </c>
-      <c r="D35" t="s">
-        <v>205</v>
-      </c>
-      <c r="E35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F35" t="s">
-        <v>207</v>
-      </c>
-      <c r="G35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35">
-        <v>200</v>
-      </c>
-      <c r="I35" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>232</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36" t="s">
-        <v>234</v>
-      </c>
-      <c r="F36" t="s">
-        <v>198</v>
-      </c>
-      <c r="G36" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36">
-        <v>339</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B37" t="s">
-        <v>187</v>
-      </c>
-      <c r="C37">
-        <v>511</v>
-      </c>
-      <c r="D37" t="s">
-        <v>236</v>
-      </c>
-      <c r="E37" t="s">
-        <v>234</v>
-      </c>
-      <c r="F37" t="s">
-        <v>237</v>
-      </c>
-      <c r="G37" t="s">
-        <v>238</v>
-      </c>
-      <c r="H37">
-        <v>305</v>
-      </c>
-      <c r="I37" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
-        <v>239</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
-      </c>
-      <c r="C38" t="s">
-        <v>240</v>
-      </c>
-      <c r="D38" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F38" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" t="s">
-        <v>242</v>
-      </c>
-      <c r="H38">
-        <v>272</v>
-      </c>
-      <c r="I38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
-        <v>239</v>
-      </c>
-      <c r="B39" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s">
-        <v>246</v>
-      </c>
-      <c r="E39" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" t="s">
-        <v>215</v>
-      </c>
-      <c r="G39" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39">
-        <v>184</v>
-      </c>
-      <c r="I39" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B40" t="s">
-        <v>203</v>
-      </c>
-      <c r="C40" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40">
-        <v>511</v>
-      </c>
-      <c r="E40" t="s">
-        <v>199</v>
-      </c>
-      <c r="F40" t="s">
-        <v>237</v>
-      </c>
-      <c r="G40" t="s">
-        <v>198</v>
-      </c>
-      <c r="H40">
-        <v>291</v>
-      </c>
-      <c r="I40" t="s">
-        <v>243</v>
+      <c r="I59" s="1" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$66</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="305">
   <si>
     <t>c112</t>
   </si>
@@ -1056,13 +1056,59 @@
   <si>
     <t>头头猫Sora玩具喵半auto</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b112</t>
+  </si>
+  <si>
+    <t>310w</t>
+  </si>
+  <si>
+    <t>b211</t>
+  </si>
+  <si>
+    <t>335w</t>
+  </si>
+  <si>
+    <t>b210</t>
+  </si>
+  <si>
+    <t>b209</t>
+  </si>
+  <si>
+    <t>300w</t>
+  </si>
+  <si>
+    <t>bt203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bt205</t>
+  </si>
+  <si>
+    <t>345w</t>
+  </si>
+  <si>
+    <t>bt208</t>
+  </si>
+  <si>
+    <t>315w</t>
+  </si>
+  <si>
+    <t>bt206</t>
+  </si>
+  <si>
+    <t>280w</t>
+  </si>
+  <si>
+    <t>b308</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,38 +1124,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="SimSun"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1147,34 +1175,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,12 +1481,12 @@
       <selection sqref="A1:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1484,7 +1503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1501,7 +1520,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1535,7 +1554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1552,7 +1571,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1586,7 +1605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1603,7 +1622,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1620,7 +1639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1637,7 +1656,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1654,7 +1673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1671,7 +1690,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1688,7 +1707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1705,7 +1724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1741,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +1775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1792,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -1790,7 +1809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1807,7 +1826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1824,7 +1843,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1858,7 +1877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +1894,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -1892,7 +1911,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1909,7 +1928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>64</v>
       </c>
@@ -1926,7 +1945,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>98</v>
       </c>
@@ -1943,7 +1962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1960,7 +1979,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>100</v>
       </c>
@@ -1977,7 +1996,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>101</v>
       </c>
@@ -1994,7 +2013,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2011,7 +2030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -2028,7 +2047,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -2045,7 +2064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -2062,7 +2081,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>106</v>
       </c>
@@ -2079,7 +2098,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>107</v>
       </c>
@@ -2096,7 +2115,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -2113,7 +2132,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2130,7 +2149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -2147,7 +2166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>111</v>
       </c>
@@ -2164,7 +2183,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>112</v>
       </c>
@@ -2181,7 +2200,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -2232,12 +2251,12 @@
       <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2254,7 +2273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2271,7 +2290,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2288,7 +2307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2305,7 +2324,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2322,7 +2341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2339,7 +2358,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2356,7 +2375,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2373,7 +2392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -2390,7 +2409,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2407,7 +2426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2424,7 +2443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2441,7 +2460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2458,7 +2477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2475,7 +2494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2492,7 +2511,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +2528,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -2526,7 +2545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2543,7 +2562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2560,7 +2579,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2577,7 +2596,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
@@ -2594,7 +2613,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +2630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -2628,7 +2647,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2645,7 +2664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2662,7 +2681,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -2679,7 +2698,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>100</v>
       </c>
@@ -2696,7 +2715,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>101</v>
       </c>
@@ -2713,7 +2732,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>103</v>
       </c>
@@ -2730,7 +2749,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>104</v>
       </c>
@@ -2747,7 +2766,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -2764,7 +2783,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>106</v>
       </c>
@@ -2781,7 +2800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -2798,7 +2817,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -2815,7 +2834,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2832,7 +2851,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>110</v>
       </c>
@@ -2849,7 +2868,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -2866,7 +2885,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -2891,19 +2910,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
     <col min="9" max="9" width="42.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2932,26 +2952,26 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>125</v>
       </c>
       <c r="H2" s="1">
@@ -2961,55 +2981,55 @@
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>125</v>
       </c>
       <c r="H3" s="1">
         <v>285</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>125</v>
       </c>
       <c r="H4" s="1">
@@ -3019,65 +3039,65 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H5" s="1">
         <v>315</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="H6" s="1">
         <v>320</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -3106,7 +3126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5" customHeight="1">
+    <row r="8" spans="1:9" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
@@ -3135,7 +3155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>184</v>
       </c>
@@ -3164,7 +3184,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>184</v>
       </c>
@@ -3193,7 +3213,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>230</v>
       </c>
@@ -3222,7 +3242,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -3251,207 +3271,207 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="27" customHeight="1">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:9" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>297</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>300</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>310</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>310</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>300</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>300</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>137</v>
       </c>
@@ -3476,11 +3496,11 @@
       <c r="H20" s="1">
         <v>295</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -3509,244 +3529,244 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>121</v>
+        <v>23</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H22" s="1">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="1">
+        <v>235</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="5">
+        <v>305</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H23" s="1">
+      <c r="G25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25" s="5">
+        <v>305</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="1">
+        <v>511</v>
+      </c>
+      <c r="H26" s="1">
+        <v>290</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="1">
+        <v>320</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" s="5">
+        <v>240</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D29" s="1">
         <v>511</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H29" s="1">
         <v>344</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="E25" s="1">
-        <v>77</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H25" s="1">
-        <v>198</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="16.5">
-      <c r="A26" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="H26" s="4">
-        <v>305</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="16.5">
-      <c r="A27" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H27" s="4">
-        <v>305</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G28" s="1">
-        <v>511</v>
-      </c>
-      <c r="H28" s="1">
-        <v>290</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="1">
-        <v>320</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>28</v>
@@ -3755,7 +3775,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>124</v>
@@ -3764,158 +3784,155 @@
         <v>125</v>
       </c>
       <c r="H30" s="1">
-        <v>325</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="28.5">
+        <v>320</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E31" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="H31" s="1">
-        <v>320</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>330</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F32" s="1">
-        <v>511</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>125</v>
       </c>
       <c r="H32" s="1">
-        <v>275</v>
+        <v>325</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="28.5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D33" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="1">
+        <v>511</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="1">
+        <v>275</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="1">
+        <v>270</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="F35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H33" s="1">
-        <v>330</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H34" s="1">
-        <v>279</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="1">
-        <v>511</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1">
         <v>210</v>
       </c>
-      <c r="H35" s="1">
-        <v>299</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>206</v>
       </c>
@@ -3944,65 +3961,65 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="1">
+        <v>279</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" s="1">
-        <v>272</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="C38" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>244</v>
+        <v>191</v>
+      </c>
+      <c r="D38" s="1">
+        <v>511</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="H38" s="1">
-        <v>184</v>
+        <v>299</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>156</v>
       </c>
@@ -4031,7 +4048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
@@ -4060,7 +4077,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>156</v>
       </c>
@@ -4089,7 +4106,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>215</v>
       </c>
@@ -4118,7 +4135,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>215</v>
       </c>
@@ -4147,7 +4164,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>215</v>
       </c>
@@ -4176,7 +4193,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>245</v>
       </c>
@@ -4205,7 +4222,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>162</v>
       </c>
@@ -4234,7 +4251,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
@@ -4259,11 +4276,11 @@
       <c r="H47" s="1">
         <v>247</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I47" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>162</v>
       </c>
@@ -4292,7 +4309,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>221</v>
       </c>
@@ -4321,7 +4338,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>221</v>
       </c>
@@ -4350,7 +4367,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>221</v>
       </c>
@@ -4379,91 +4396,94 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H52" s="4">
+        <v>190</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="1">
+        <v>77</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H52" s="1">
+        <v>198</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="H53" s="1">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>28</v>
+        <v>244</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>27</v>
+        <v>235</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="H54" s="1">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>184</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>156</v>
       </c>
@@ -4492,7 +4512,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>156</v>
       </c>
@@ -4518,7 +4538,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>156</v>
       </c>
@@ -4547,7 +4567,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>156</v>
       </c>
@@ -4576,7 +4596,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>162</v>
       </c>
@@ -4605,7 +4625,228 @@
         <v>288</v>
       </c>
     </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K61" s="6"/>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="1">
+        <v>511</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G64" s="1">
+        <v>511</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G65" s="1">
+        <v>511</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" s="1">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I66">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="B3"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A30:I54">
+      <sortCondition ref="B1:B66"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/homework.xlsx
+++ b/homework.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="C" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$66</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="362">
   <si>
     <t>c112</t>
   </si>
@@ -1102,6 +1103,211 @@
   </si>
   <si>
     <t>b308</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>妹法</t>
+  </si>
+  <si>
+    <t>春剑</t>
+  </si>
+  <si>
+    <t>茶会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头头猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿联酋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水黑124茶会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>很多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶会清风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>狼忍11-6 其余12-5</t>
+  </si>
+  <si>
+    <t>xbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-6狼忍，狼可R12，其余12-5头头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情病</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>渔火auto202w</t>
+  </si>
+  <si>
+    <t>渔火auto226w</t>
+  </si>
+  <si>
+    <t>追影寻梦</t>
+  </si>
+  <si>
+    <t>酷乐半auto 视频暴击较多，已酌情-15w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多人见作业表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-4情姐渔火auto235w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能不方便排刀</t>
+  </si>
+  <si>
+    <t>春田</t>
+  </si>
+  <si>
+    <t>半auto阿尔托利亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春田无要求 水黑12-4
+其余12-5
+茶会的轴，双击看右边图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>ct101</t>
+  </si>
+  <si>
+    <t>ct102</t>
+  </si>
+  <si>
+    <t>全程连点狼情姐 玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全程连点狼 玩具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c103</t>
+  </si>
+  <si>
+    <t>茶会的轴，双击看右边图
+全员12-5（危 情姐 危）</t>
+  </si>
+  <si>
+    <t>c106</t>
+  </si>
+  <si>
+    <t>狼12-4 其余12-5（危 情姐 危）</t>
+  </si>
+  <si>
+    <t>c102</t>
+  </si>
+  <si>
+    <t>茶会的轴，双击看右边图
+狼9-5 其余12-5</t>
+  </si>
+  <si>
+    <t>R11/12狼克 环奈yls12-5 水妈10-5不穿鞋</t>
+  </si>
+  <si>
+    <t>c105</t>
+  </si>
+  <si>
+    <t>茶会的轴，双击看右边图
+全员12-5</t>
+  </si>
+  <si>
+    <t>c107</t>
+  </si>
+  <si>
+    <t>圣母</t>
+  </si>
+  <si>
+    <t>全部12-5
+小心yly自爆
+玩具喵轴半auto</t>
+  </si>
+  <si>
+    <t>水白</t>
+  </si>
+  <si>
+    <t>普妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川包半auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水猫剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2913,8 +3119,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4850,4 +5056,1063 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2">
+        <v>511</v>
+      </c>
+      <c r="H2">
+        <v>235</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3">
+        <v>511</v>
+      </c>
+      <c r="F3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>205</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4">
+        <v>511</v>
+      </c>
+      <c r="F4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H4">
+        <v>220</v>
+      </c>
+      <c r="I4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" t="s">
+        <v>264</v>
+      </c>
+      <c r="H5">
+        <v>200</v>
+      </c>
+      <c r="I5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" t="s">
+        <v>307</v>
+      </c>
+      <c r="H6">
+        <v>175</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7">
+        <v>330</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>361</v>
+      </c>
+      <c r="G8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8">
+        <v>290</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>357</v>
+      </c>
+      <c r="F9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G9" t="s">
+        <v>359</v>
+      </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10">
+        <v>288</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>264</v>
+      </c>
+      <c r="H11">
+        <v>260</v>
+      </c>
+      <c r="I11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H12">
+        <v>220</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13">
+        <v>511</v>
+      </c>
+      <c r="H13">
+        <v>250</v>
+      </c>
+      <c r="I13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15">
+        <v>235</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C16" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16">
+        <v>270</v>
+      </c>
+      <c r="I16" t="s">
+        <v>325</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C17" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>124</v>
+      </c>
+      <c r="H17">
+        <v>245</v>
+      </c>
+      <c r="I17" t="s">
+        <v>326</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>321</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18">
+        <v>280</v>
+      </c>
+      <c r="I18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>328</v>
+      </c>
+      <c r="B19" t="s">
+        <v>330</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>361</v>
+      </c>
+      <c r="G19" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19">
+        <v>200</v>
+      </c>
+      <c r="I19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>328</v>
+      </c>
+      <c r="B20" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20">
+        <v>511</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
+        <v>327</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="N20" s="6"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21">
+        <v>511</v>
+      </c>
+      <c r="H21">
+        <v>220</v>
+      </c>
+      <c r="I21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" t="s">
+        <v>264</v>
+      </c>
+      <c r="H22">
+        <v>190</v>
+      </c>
+      <c r="I22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>328</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23">
+        <v>511</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23">
+        <v>295</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" t="s">
+        <v>125</v>
+      </c>
+      <c r="H25">
+        <v>275</v>
+      </c>
+      <c r="I25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>328</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26">
+        <v>511</v>
+      </c>
+      <c r="H26">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G27" t="s">
+        <v>171</v>
+      </c>
+      <c r="H27">
+        <v>251</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" t="s">
+        <v>354</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28">
+        <v>230</v>
+      </c>
+      <c r="I28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29">
+        <v>511</v>
+      </c>
+      <c r="H29">
+        <v>225</v>
+      </c>
+      <c r="I29" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>336</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30">
+        <v>310</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" t="s">
+        <v>354</v>
+      </c>
+      <c r="D31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31">
+        <v>276</v>
+      </c>
+      <c r="I31" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>124</v>
+      </c>
+      <c r="G33" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33">
+        <v>275</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34">
+        <v>235</v>
+      </c>
+      <c r="I34" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" t="s">
+        <v>348</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>170</v>
+      </c>
+      <c r="F35" t="s">
+        <v>171</v>
+      </c>
+      <c r="G35" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" t="s">
+        <v>350</v>
+      </c>
+      <c r="C36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>351</v>
+      </c>
+      <c r="F36" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" t="s">
+        <v>171</v>
+      </c>
+      <c r="H36">
+        <v>195</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>